--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H2">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.010483666666667</v>
+        <v>0.8813366666666665</v>
       </c>
       <c r="N2">
-        <v>3.031451</v>
+        <v>2.64401</v>
       </c>
       <c r="O2">
-        <v>0.304079780429083</v>
+        <v>0.3868732245819838</v>
       </c>
       <c r="P2">
-        <v>0.3040797804290829</v>
+        <v>0.3868732245819839</v>
       </c>
       <c r="Q2">
-        <v>23.15641009831045</v>
+        <v>71.03618452125444</v>
       </c>
       <c r="R2">
-        <v>208.407690884794</v>
+        <v>639.32566069129</v>
       </c>
       <c r="S2">
-        <v>0.01690683688621443</v>
+        <v>0.0673952379337575</v>
       </c>
       <c r="T2">
-        <v>0.01690683688621442</v>
+        <v>0.06739523793375751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H3">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.785376</v>
       </c>
       <c r="O3">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="P3">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="Q3">
-        <v>13.63799013597155</v>
+        <v>47.96740518221155</v>
       </c>
       <c r="R3">
-        <v>122.741911223744</v>
+        <v>431.706646639904</v>
       </c>
       <c r="S3">
-        <v>0.009957297944964954</v>
+        <v>0.04550884464174502</v>
       </c>
       <c r="T3">
-        <v>0.009957297944964954</v>
+        <v>0.04550884464174502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H4">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I4">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J4">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.186716</v>
+        <v>0.17328</v>
       </c>
       <c r="N4">
-        <v>0.560148</v>
+        <v>0.5198400000000001</v>
       </c>
       <c r="O4">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727108</v>
       </c>
       <c r="P4">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727109</v>
       </c>
       <c r="Q4">
-        <v>4.278814601901333</v>
+        <v>13.96645631504</v>
       </c>
       <c r="R4">
-        <v>38.50933141711199</v>
+        <v>125.69810683536</v>
       </c>
       <c r="S4">
-        <v>0.003124025711825537</v>
+        <v>0.01325060816240654</v>
       </c>
       <c r="T4">
-        <v>0.003124025711825537</v>
+        <v>0.01325060816240654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H5">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I5">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J5">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.026512333333333</v>
+        <v>0.367683</v>
       </c>
       <c r="N5">
-        <v>3.079537</v>
+        <v>1.103049</v>
       </c>
       <c r="O5">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="P5">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="Q5">
-        <v>23.52372566303089</v>
+        <v>29.635437195769</v>
       </c>
       <c r="R5">
-        <v>211.713530967278</v>
+        <v>266.718934761921</v>
       </c>
       <c r="S5">
-        <v>0.01717501940294008</v>
+        <v>0.02811647830666045</v>
       </c>
       <c r="T5">
-        <v>0.01717501940294008</v>
+        <v>0.02811647830666045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H6">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I6">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J6">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.055101</v>
+        <v>0.09286499999999999</v>
       </c>
       <c r="N6">
-        <v>0.165303</v>
+        <v>0.278595</v>
       </c>
       <c r="O6">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446374</v>
       </c>
       <c r="P6">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446375</v>
       </c>
       <c r="Q6">
-        <v>1.262703589298</v>
+        <v>7.484966330194999</v>
       </c>
       <c r="R6">
-        <v>11.364332303682</v>
+        <v>67.364696971755</v>
       </c>
       <c r="S6">
-        <v>0.000921918532676894</v>
+        <v>0.007101325756012712</v>
       </c>
       <c r="T6">
-        <v>0.0009219185326768938</v>
+        <v>0.007101325756012714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H7">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I7">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J7">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.449149</v>
+        <v>0.167812</v>
       </c>
       <c r="N7">
-        <v>1.347447</v>
+        <v>0.503436</v>
       </c>
       <c r="O7">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="P7">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="Q7">
-        <v>10.29277244386866</v>
+        <v>13.52573272818267</v>
       </c>
       <c r="R7">
-        <v>92.63495199481798</v>
+        <v>121.731594553644</v>
       </c>
       <c r="S7">
-        <v>0.007514905120293537</v>
+        <v>0.01283247378202773</v>
       </c>
       <c r="T7">
-        <v>0.007514905120293536</v>
+        <v>0.01283247378202773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H8">
         <v>280.043709</v>
       </c>
       <c r="I8">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J8">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.010483666666667</v>
+        <v>0.8813366666666665</v>
       </c>
       <c r="N8">
-        <v>3.031451</v>
+        <v>2.64401</v>
       </c>
       <c r="O8">
-        <v>0.304079780429083</v>
+        <v>0.3868732245819838</v>
       </c>
       <c r="P8">
-        <v>0.3040797804290829</v>
+        <v>0.3868732245819839</v>
       </c>
       <c r="Q8">
-        <v>94.32653129908437</v>
+        <v>82.27092967034331</v>
       </c>
       <c r="R8">
-        <v>848.9387816917591</v>
+        <v>740.4383670330899</v>
       </c>
       <c r="S8">
-        <v>0.06886919310659373</v>
+        <v>0.07805414828417791</v>
       </c>
       <c r="T8">
-        <v>0.0688691931065937</v>
+        <v>0.07805414828417792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H9">
         <v>280.043709</v>
       </c>
       <c r="I9">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J9">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.785376</v>
       </c>
       <c r="O9">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="P9">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="Q9">
-        <v>55.55370188884267</v>
+        <v>55.55370188884265</v>
       </c>
       <c r="R9">
-        <v>499.983316999584</v>
+        <v>499.9833169995839</v>
       </c>
       <c r="S9">
-        <v>0.04056057792518429</v>
+        <v>0.05270630710436512</v>
       </c>
       <c r="T9">
-        <v>0.04056057792518428</v>
+        <v>0.05270630710436512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H10">
         <v>280.043709</v>
       </c>
       <c r="I10">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J10">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.186716</v>
+        <v>0.17328</v>
       </c>
       <c r="N10">
-        <v>0.560148</v>
+        <v>0.5198400000000001</v>
       </c>
       <c r="O10">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727108</v>
       </c>
       <c r="P10">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727109</v>
       </c>
       <c r="Q10">
-        <v>17.429547056548</v>
+        <v>16.17532463184</v>
       </c>
       <c r="R10">
-        <v>156.865923508932</v>
+        <v>145.57792168656</v>
       </c>
       <c r="S10">
-        <v>0.01272556962994693</v>
+        <v>0.01534626133942271</v>
       </c>
       <c r="T10">
-        <v>0.01272556962994693</v>
+        <v>0.01534626133942272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H11">
         <v>280.043709</v>
       </c>
       <c r="I11">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J11">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.026512333333333</v>
+        <v>0.367683</v>
       </c>
       <c r="N11">
-        <v>3.079537</v>
+        <v>1.103049</v>
       </c>
       <c r="O11">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="P11">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="Q11">
-        <v>95.8227737203037</v>
+        <v>34.32243701874899</v>
       </c>
       <c r="R11">
-        <v>862.4049634827331</v>
+        <v>308.901933168741</v>
       </c>
       <c r="S11">
-        <v>0.06996162178834503</v>
+        <v>0.03256324681476779</v>
       </c>
       <c r="T11">
-        <v>0.06996162178834502</v>
+        <v>0.03256324681476779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H12">
         <v>280.043709</v>
       </c>
       <c r="I12">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J12">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.055101</v>
+        <v>0.09286499999999999</v>
       </c>
       <c r="N12">
-        <v>0.165303</v>
+        <v>0.278595</v>
       </c>
       <c r="O12">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446374</v>
       </c>
       <c r="P12">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446375</v>
       </c>
       <c r="Q12">
-        <v>5.143562803203001</v>
+        <v>8.668753012094998</v>
       </c>
       <c r="R12">
-        <v>46.29206522882701</v>
+        <v>78.01877710885499</v>
       </c>
       <c r="S12">
-        <v>0.003755391140447021</v>
+        <v>0.008224437669006752</v>
       </c>
       <c r="T12">
-        <v>0.00375539114044702</v>
+        <v>0.008224437669006754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H13">
         <v>280.043709</v>
       </c>
       <c r="I13">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J13">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.449149</v>
+        <v>0.167812</v>
       </c>
       <c r="N13">
-        <v>1.347447</v>
+        <v>0.503436</v>
       </c>
       <c r="O13">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="P13">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="Q13">
-        <v>41.927117284547</v>
+        <v>15.664898298236</v>
       </c>
       <c r="R13">
-        <v>377.344055560923</v>
+        <v>140.984084684124</v>
       </c>
       <c r="S13">
-        <v>0.03061160732728333</v>
+        <v>0.01486199681377657</v>
       </c>
       <c r="T13">
-        <v>0.03061160732728332</v>
+        <v>0.01486199681377657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H14">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I14">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J14">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.010483666666667</v>
+        <v>0.8813366666666665</v>
       </c>
       <c r="N14">
-        <v>3.031451</v>
+        <v>2.64401</v>
       </c>
       <c r="O14">
-        <v>0.304079780429083</v>
+        <v>0.3868732245819838</v>
       </c>
       <c r="P14">
-        <v>0.3040797804290829</v>
+        <v>0.3868732245819839</v>
       </c>
       <c r="Q14">
-        <v>81.07032178865289</v>
+        <v>72.52401389642442</v>
       </c>
       <c r="R14">
-        <v>729.632896097876</v>
+        <v>652.7161250678199</v>
       </c>
       <c r="S14">
-        <v>0.05919063883281613</v>
+        <v>0.06880680888763401</v>
       </c>
       <c r="T14">
-        <v>0.05919063883281611</v>
+        <v>0.06880680888763402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H15">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I15">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J15">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.785376</v>
       </c>
       <c r="O15">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="P15">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="Q15">
-        <v>47.74644446957511</v>
+        <v>48.97206660880354</v>
       </c>
       <c r="R15">
-        <v>429.7180002261759</v>
+        <v>440.7485994792319</v>
       </c>
       <c r="S15">
-        <v>0.03486038401965854</v>
+        <v>0.04646201233148456</v>
       </c>
       <c r="T15">
-        <v>0.03486038401965853</v>
+        <v>0.04646201233148456</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H16">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I16">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J16">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.186716</v>
+        <v>0.17328</v>
       </c>
       <c r="N16">
-        <v>0.560148</v>
+        <v>0.5198400000000001</v>
       </c>
       <c r="O16">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727108</v>
       </c>
       <c r="P16">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727109</v>
       </c>
       <c r="Q16">
-        <v>14.98008003733867</v>
+        <v>14.25897912032</v>
       </c>
       <c r="R16">
-        <v>134.820720336048</v>
+        <v>128.33081208288</v>
       </c>
       <c r="S16">
-        <v>0.01093717759611628</v>
+        <v>0.01352813776504161</v>
       </c>
       <c r="T16">
-        <v>0.01093717759611628</v>
+        <v>0.01352813776504161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H17">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I17">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J17">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.026512333333333</v>
+        <v>0.367683</v>
       </c>
       <c r="N17">
-        <v>3.079537</v>
+        <v>1.103049</v>
       </c>
       <c r="O17">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="P17">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="Q17">
-        <v>82.35628929844579</v>
+        <v>30.256141619902</v>
       </c>
       <c r="R17">
-        <v>741.206603686012</v>
+        <v>272.305274579118</v>
       </c>
       <c r="S17">
-        <v>0.06012954269730703</v>
+        <v>0.02870536863956483</v>
       </c>
       <c r="T17">
-        <v>0.06012954269730701</v>
+        <v>0.02870536863956483</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H18">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I18">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J18">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.055101</v>
+        <v>0.09286499999999999</v>
       </c>
       <c r="N18">
-        <v>0.165303</v>
+        <v>0.278595</v>
       </c>
       <c r="O18">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446374</v>
       </c>
       <c r="P18">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446375</v>
       </c>
       <c r="Q18">
-        <v>4.420710545092001</v>
+        <v>7.641736472809998</v>
       </c>
       <c r="R18">
-        <v>39.786394905828</v>
+        <v>68.77562825528999</v>
       </c>
       <c r="S18">
-        <v>0.003227626034852948</v>
+        <v>0.007250060673768404</v>
       </c>
       <c r="T18">
-        <v>0.003227626034852947</v>
+        <v>0.007250060673768405</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H19">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I19">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J19">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.449149</v>
+        <v>0.167812</v>
       </c>
       <c r="N19">
-        <v>1.347447</v>
+        <v>0.503436</v>
       </c>
       <c r="O19">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="P19">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="Q19">
-        <v>36.03487632924133</v>
+        <v>13.80902472379466</v>
       </c>
       <c r="R19">
-        <v>324.3138869631719</v>
+        <v>124.281222514152</v>
       </c>
       <c r="S19">
-        <v>0.02630959521475412</v>
+        <v>0.01310124569844854</v>
       </c>
       <c r="T19">
-        <v>0.02630959521475411</v>
+        <v>0.01310124569844854</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H20">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I20">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J20">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.010483666666667</v>
+        <v>0.8813366666666665</v>
       </c>
       <c r="N20">
-        <v>3.031451</v>
+        <v>2.64401</v>
       </c>
       <c r="O20">
-        <v>0.304079780429083</v>
+        <v>0.3868732245819838</v>
       </c>
       <c r="P20">
-        <v>0.3040797804290829</v>
+        <v>0.3868732245819839</v>
       </c>
       <c r="Q20">
-        <v>78.67735264047766</v>
+        <v>40.03351946546666</v>
       </c>
       <c r="R20">
-        <v>708.0961737642989</v>
+        <v>360.3016751892</v>
       </c>
       <c r="S20">
-        <v>0.05744349672874302</v>
+        <v>0.03798160877986852</v>
       </c>
       <c r="T20">
-        <v>0.057443496728743</v>
+        <v>0.03798160877986852</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H21">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I21">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J21">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.785376</v>
       </c>
       <c r="O21">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="P21">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="Q21">
-        <v>46.33710297406932</v>
+        <v>27.03275889621333</v>
       </c>
       <c r="R21">
-        <v>417.0339267666239</v>
+        <v>243.29483006592</v>
       </c>
       <c r="S21">
-        <v>0.0338314029867467</v>
+        <v>0.02564719980520745</v>
       </c>
       <c r="T21">
-        <v>0.03383140298674669</v>
+        <v>0.02564719980520745</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H22">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I22">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J22">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.186716</v>
+        <v>0.17328</v>
       </c>
       <c r="N22">
-        <v>0.560148</v>
+        <v>0.5198400000000001</v>
       </c>
       <c r="O22">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727108</v>
       </c>
       <c r="P22">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727109</v>
       </c>
       <c r="Q22">
-        <v>14.537909973428</v>
+        <v>7.8710083392</v>
       </c>
       <c r="R22">
-        <v>130.841189760852</v>
+        <v>70.8390750528</v>
       </c>
       <c r="S22">
-        <v>0.01061434270440523</v>
+        <v>0.007467581252766388</v>
       </c>
       <c r="T22">
-        <v>0.01061434270440523</v>
+        <v>0.007467581252766389</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H23">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I23">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J23">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.026512333333333</v>
+        <v>0.367683</v>
       </c>
       <c r="N23">
-        <v>3.079537</v>
+        <v>1.103049</v>
       </c>
       <c r="O23">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="P23">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="Q23">
-        <v>79.92536198619034</v>
+        <v>16.70150022612</v>
       </c>
       <c r="R23">
-        <v>719.3282578757129</v>
+        <v>150.31350203508</v>
       </c>
       <c r="S23">
-        <v>0.0583546867772374</v>
+        <v>0.01584546790028222</v>
       </c>
       <c r="T23">
-        <v>0.05835468677723739</v>
+        <v>0.01584546790028222</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H24">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I24">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J24">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.055101</v>
+        <v>0.09286499999999999</v>
       </c>
       <c r="N24">
-        <v>0.165303</v>
+        <v>0.278595</v>
       </c>
       <c r="O24">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446374</v>
       </c>
       <c r="P24">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446375</v>
       </c>
       <c r="Q24">
-        <v>4.290223534383</v>
+        <v>4.2182663286</v>
       </c>
       <c r="R24">
-        <v>38.612011809447</v>
+        <v>37.96439695739999</v>
       </c>
       <c r="S24">
-        <v>0.003132355541868039</v>
+        <v>0.004002059862870212</v>
       </c>
       <c r="T24">
-        <v>0.003132355541868037</v>
+        <v>0.004002059862870213</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H25">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I25">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J25">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.449149</v>
+        <v>0.167812</v>
       </c>
       <c r="N25">
-        <v>1.347447</v>
+        <v>0.503436</v>
       </c>
       <c r="O25">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="P25">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="Q25">
-        <v>34.97122756836699</v>
+        <v>7.622631875679999</v>
       </c>
       <c r="R25">
-        <v>314.7410481153029</v>
+        <v>68.60368688112</v>
       </c>
       <c r="S25">
-        <v>0.02553300955108777</v>
+        <v>0.007231935279254576</v>
       </c>
       <c r="T25">
-        <v>0.02553300955108776</v>
+        <v>0.007231935279254576</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H26">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I26">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J26">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.010483666666667</v>
+        <v>0.8813366666666665</v>
       </c>
       <c r="N26">
-        <v>3.031451</v>
+        <v>2.64401</v>
       </c>
       <c r="O26">
-        <v>0.304079780429083</v>
+        <v>0.3868732245819838</v>
       </c>
       <c r="P26">
-        <v>0.3040797804290829</v>
+        <v>0.3868732245819839</v>
       </c>
       <c r="Q26">
-        <v>57.43177995529367</v>
+        <v>56.06051570037999</v>
       </c>
       <c r="R26">
-        <v>516.886019597643</v>
+        <v>504.5446413034199</v>
       </c>
       <c r="S26">
-        <v>0.04193179044881207</v>
+        <v>0.05318714426709946</v>
       </c>
       <c r="T26">
-        <v>0.04193179044881206</v>
+        <v>0.05318714426709947</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H27">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I27">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J27">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.785376</v>
       </c>
       <c r="O27">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="P27">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="Q27">
-        <v>33.82450238168533</v>
+        <v>37.85503809708799</v>
       </c>
       <c r="R27">
-        <v>304.420521435168</v>
+        <v>340.695342873792</v>
       </c>
       <c r="S27">
-        <v>0.02469576856242713</v>
+        <v>0.03591478507381476</v>
       </c>
       <c r="T27">
-        <v>0.02469576856242713</v>
+        <v>0.03591478507381476</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H28">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I28">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J28">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.186716</v>
+        <v>0.17328</v>
       </c>
       <c r="N28">
-        <v>0.560148</v>
+        <v>0.5198400000000001</v>
       </c>
       <c r="O28">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727108</v>
       </c>
       <c r="P28">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727109</v>
       </c>
       <c r="Q28">
-        <v>10.612177692596</v>
+        <v>11.02208330592</v>
       </c>
       <c r="R28">
-        <v>95.50959923336399</v>
+        <v>99.19874975328001</v>
       </c>
       <c r="S28">
-        <v>0.007748107607980857</v>
+        <v>0.0104571484509548</v>
       </c>
       <c r="T28">
-        <v>0.007748107607980857</v>
+        <v>0.0104571484509548</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H29">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I29">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J29">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.026512333333333</v>
+        <v>0.367683</v>
       </c>
       <c r="N29">
-        <v>3.079537</v>
+        <v>1.103049</v>
       </c>
       <c r="O29">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="P29">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="Q29">
-        <v>58.34278414798234</v>
+        <v>23.387769253062</v>
       </c>
       <c r="R29">
-        <v>525.085057331841</v>
+        <v>210.489923277558</v>
       </c>
       <c r="S29">
-        <v>0.04259692805965307</v>
+        <v>0.02218903343659056</v>
       </c>
       <c r="T29">
-        <v>0.04259692805965307</v>
+        <v>0.02218903343659056</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H30">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I30">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J30">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2297,28 +2297,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.055101</v>
+        <v>0.09286499999999999</v>
       </c>
       <c r="N30">
-        <v>0.165303</v>
+        <v>0.278595</v>
       </c>
       <c r="O30">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446374</v>
       </c>
       <c r="P30">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446375</v>
       </c>
       <c r="Q30">
-        <v>3.131716634031</v>
+        <v>5.907004652609999</v>
       </c>
       <c r="R30">
-        <v>28.185449706279</v>
+        <v>53.16304187348999</v>
       </c>
       <c r="S30">
-        <v>0.002286512550115433</v>
+        <v>0.005604242214323158</v>
       </c>
       <c r="T30">
-        <v>0.002286512550115433</v>
+        <v>0.005604242214323159</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H31">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I31">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J31">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.449149</v>
+        <v>0.167812</v>
       </c>
       <c r="N31">
-        <v>1.347447</v>
+        <v>0.503436</v>
       </c>
       <c r="O31">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="P31">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="Q31">
-        <v>25.527801572719</v>
+        <v>10.674271951368</v>
       </c>
       <c r="R31">
-        <v>229.750214154471</v>
+        <v>96.06844756231199</v>
       </c>
       <c r="S31">
-        <v>0.01863822481210498</v>
+        <v>0.01012716410348353</v>
       </c>
       <c r="T31">
-        <v>0.01863822481210498</v>
+        <v>0.01012716410348353</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H32">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I32">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J32">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.010483666666667</v>
+        <v>0.8813366666666665</v>
       </c>
       <c r="N32">
-        <v>3.031451</v>
+        <v>2.64401</v>
       </c>
       <c r="O32">
-        <v>0.304079780429083</v>
+        <v>0.3868732245819838</v>
       </c>
       <c r="P32">
-        <v>0.3040797804290829</v>
+        <v>0.3868732245819839</v>
       </c>
       <c r="Q32">
-        <v>81.81977327261156</v>
+        <v>85.84842150222998</v>
       </c>
       <c r="R32">
-        <v>736.377959453504</v>
+        <v>772.6357935200699</v>
       </c>
       <c r="S32">
-        <v>0.0597378244259036</v>
+        <v>0.08144827642944641</v>
       </c>
       <c r="T32">
-        <v>0.05973782442590358</v>
+        <v>0.08144827642944641</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H33">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I33">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J33">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.785376</v>
       </c>
       <c r="O33">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="P33">
-        <v>0.1790880809432032</v>
+        <v>0.2612373516784294</v>
       </c>
       <c r="Q33">
-        <v>48.18783464630044</v>
+        <v>57.96941440764799</v>
       </c>
       <c r="R33">
-        <v>433.690511816704</v>
+        <v>521.724729668832</v>
       </c>
       <c r="S33">
-        <v>0.03518264950422158</v>
+        <v>0.05499820272181245</v>
       </c>
       <c r="T33">
-        <v>0.03518264950422158</v>
+        <v>0.05499820272181245</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H34">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I34">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J34">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.186716</v>
+        <v>0.17328</v>
       </c>
       <c r="N34">
-        <v>0.560148</v>
+        <v>0.5198400000000001</v>
       </c>
       <c r="O34">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727108</v>
       </c>
       <c r="P34">
-        <v>0.05618750916567344</v>
+        <v>0.07606331937727109</v>
       </c>
       <c r="Q34">
-        <v>15.11856281335467</v>
+        <v>16.87869691632</v>
       </c>
       <c r="R34">
-        <v>136.067065320192</v>
+        <v>151.90827224688</v>
       </c>
       <c r="S34">
-        <v>0.01103828591539861</v>
+        <v>0.01601358240667903</v>
       </c>
       <c r="T34">
-        <v>0.01103828591539861</v>
+        <v>0.01601358240667904</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H35">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I35">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J35">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.026512333333333</v>
+        <v>0.367683</v>
       </c>
       <c r="N35">
-        <v>3.079537</v>
+        <v>1.103049</v>
       </c>
       <c r="O35">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="P35">
-        <v>0.3089032066766828</v>
+        <v>0.161398831132232</v>
       </c>
       <c r="Q35">
-        <v>83.11762885978312</v>
+        <v>35.81492335112699</v>
       </c>
       <c r="R35">
-        <v>748.058659738048</v>
+        <v>322.334310160143</v>
       </c>
       <c r="S35">
-        <v>0.06068540795120023</v>
+        <v>0.03397923603436614</v>
       </c>
       <c r="T35">
-        <v>0.06068540795120021</v>
+        <v>0.03397923603436614</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H36">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I36">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J36">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2669,28 +2669,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>0.055101</v>
+        <v>0.09286499999999999</v>
       </c>
       <c r="N36">
-        <v>0.165303</v>
+        <v>0.278595</v>
       </c>
       <c r="O36">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446374</v>
       </c>
       <c r="P36">
-        <v>0.01658126750004163</v>
+        <v>0.04076419756446375</v>
       </c>
       <c r="Q36">
-        <v>4.461577634368</v>
+        <v>9.045707462684998</v>
       </c>
       <c r="R36">
-        <v>40.154198709312</v>
+        <v>81.41136716416499</v>
       </c>
       <c r="S36">
-        <v>0.003257463700081295</v>
+        <v>0.008582071388482502</v>
       </c>
       <c r="T36">
-        <v>0.003257463700081294</v>
+        <v>0.008582071388482503</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H37">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I37">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J37">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.449149</v>
+        <v>0.167812</v>
       </c>
       <c r="N37">
-        <v>1.347447</v>
+        <v>0.503436</v>
       </c>
       <c r="O37">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="P37">
-        <v>0.135160155285316</v>
+        <v>0.07366307566561989</v>
       </c>
       <c r="Q37">
-        <v>36.36799936296533</v>
+        <v>16.346075063028</v>
       </c>
       <c r="R37">
-        <v>327.311994266688</v>
+        <v>147.114675567252</v>
       </c>
       <c r="S37">
-        <v>0.02655281325979226</v>
+        <v>0.01550825998862893</v>
       </c>
       <c r="T37">
-        <v>0.02655281325979225</v>
+        <v>0.01550825998862893</v>
       </c>
     </row>
   </sheetData>
